--- a/data/tablas_finales/spr_flotante_desoc.xlsx
+++ b/data/tablas_finales/spr_flotante_desoc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t xml:space="preserve">iso3c</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">mean_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pea</t>
   </si>
   <si>
     <t xml:space="preserve">max_value</t>
@@ -1598,7110 +1601,7674 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0894663636363636</v>
+        <v>8.61186116515323</v>
       </c>
       <c r="I2" t="n">
-        <v>0.14386</v>
+        <v>6011027.65517241</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07908</v>
+        <v>11.224</v>
       </c>
       <c r="K2" t="n">
-        <v>2023</v>
+        <v>7.908</v>
       </c>
       <c r="L2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M2" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>0.163301818181818</v>
+        <v>16.455315910927</v>
       </c>
       <c r="I3" t="n">
-        <v>0.17105</v>
+        <v>8571134.79310345</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1462</v>
+        <v>17.105</v>
       </c>
       <c r="K3" t="n">
+        <v>15.928</v>
+      </c>
+      <c r="L3" t="n">
         <v>1994</v>
       </c>
-      <c r="L3" t="n">
-        <v>2023</v>
+      <c r="M3" t="n">
+        <v>1997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>0.160316363636364</v>
+        <v>16.6120435608603</v>
       </c>
       <c r="I4" t="n">
-        <v>0.30007</v>
+        <v>1319023.37931034</v>
       </c>
       <c r="J4" t="n">
-        <v>0.10304</v>
+        <v>30.007</v>
       </c>
       <c r="K4" t="n">
+        <v>10.304</v>
+      </c>
+      <c r="L4" t="n">
         <v>1992</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0242375757575758</v>
+        <v>2.35286010779372</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04294</v>
+        <v>3382469.62068966</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0164</v>
+        <v>3.12</v>
       </c>
       <c r="K5" t="n">
-        <v>2020</v>
+        <v>1.64</v>
       </c>
       <c r="L5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="M5" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>0.106409393939394</v>
+        <v>10.8046134903814</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1959</v>
+        <v>17452167.2758621</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0544</v>
+        <v>19.59</v>
       </c>
       <c r="K6" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="L6" t="n">
         <v>2002</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>0.100554848484848</v>
+        <v>10.0340164800396</v>
       </c>
       <c r="I7" t="n">
-        <v>0.13212</v>
+        <v>1486010.82758621</v>
       </c>
       <c r="J7" t="n">
-        <v>0.016</v>
+        <v>13.212</v>
       </c>
       <c r="K7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L7" t="n">
         <v>2018</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0635157575757576</v>
+        <v>6.37615645894158</v>
       </c>
       <c r="I8" t="n">
-        <v>0.10879</v>
+        <v>10671483.4137931</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03667</v>
+        <v>10.879</v>
       </c>
       <c r="K8" t="n">
+        <v>4.242</v>
+      </c>
+      <c r="L8" t="n">
         <v>1993</v>
       </c>
-      <c r="L8" t="n">
-        <v>2023</v>
+      <c r="M8" t="n">
+        <v>2008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0496609090909091</v>
+        <v>4.92368635413791</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06459</v>
+        <v>4121840.13793103</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0342</v>
+        <v>6.064</v>
       </c>
       <c r="K9" t="n">
-        <v>2021</v>
+        <v>3.42</v>
       </c>
       <c r="L9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="M9" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0654684848484848</v>
+        <v>6.6161781322667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1178</v>
+        <v>4283444.75862069</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009</v>
+        <v>11.78</v>
       </c>
       <c r="K10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L10" t="n">
         <v>2000</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0224933333333333</v>
+        <v>2.22636433809292</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03191</v>
+        <v>3490405.51724138</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00919</v>
+        <v>3.191</v>
       </c>
       <c r="K11" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="L11" t="n">
         <v>1998</v>
       </c>
-      <c r="L11" t="n">
-        <v>2022</v>
+      <c r="M11" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0752760606060606</v>
+        <v>7.74970497018492</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09645</v>
+        <v>4595308.79310345</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0536</v>
+        <v>9.645</v>
       </c>
       <c r="K12" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="L12" t="n">
         <v>1994</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0135406060606061</v>
+        <v>1.37544167238496</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02647</v>
+        <v>3363121.89655172</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0069</v>
+        <v>2.647</v>
       </c>
       <c r="K13" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="L13" t="n">
         <v>2011</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>2002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0359542424242424</v>
+        <v>3.51338411039546</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05348</v>
+        <v>5606770.03448276</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02414</v>
+        <v>4.701</v>
       </c>
       <c r="K14" t="n">
-        <v>2022</v>
+        <v>2.414</v>
       </c>
       <c r="L14" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M14" t="n">
         <v>1997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0387709090909091</v>
+        <v>3.77431585154323</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05828</v>
+        <v>53124703.7241379</v>
       </c>
       <c r="J15" t="n">
-        <v>0.022</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>2020</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M15" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
-        <v>0.105154848484848</v>
+        <v>11.3904189195951</v>
       </c>
       <c r="I16" t="n">
-        <v>0.19921</v>
+        <v>3495198</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0423</v>
+        <v>19.921</v>
       </c>
       <c r="K16" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="L16" t="n">
         <v>2001</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0117342424242424</v>
+        <v>1.14468750212091</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01767</v>
+        <v>499948</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00943</v>
+        <v>1.254</v>
       </c>
       <c r="K17" t="n">
-        <v>2020</v>
+        <v>0.943</v>
       </c>
       <c r="L17" t="n">
+        <v>1996</v>
+      </c>
+      <c r="M17" t="n">
         <v>1993</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" t="n">
-        <v>0.110288787878788</v>
+        <v>11.1025956033608</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1618</v>
+        <v>191434.620689655</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0687</v>
+        <v>16.18</v>
       </c>
       <c r="K18" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="L18" t="n">
         <v>2013</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>2001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
-        <v>0.231468181818182</v>
+        <v>24.599168929832</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3111</v>
+        <v>1402506.20689655</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1042</v>
+        <v>31.11</v>
       </c>
       <c r="K19" t="n">
+        <v>15.692</v>
+      </c>
+      <c r="L19" t="n">
         <v>2006</v>
       </c>
-      <c r="L19" t="n">
-        <v>2023</v>
+      <c r="M19" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0828748484848485</v>
+        <v>8.81470716138066</v>
       </c>
       <c r="I20" t="n">
-        <v>0.244</v>
+        <v>4922341.62068965</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006</v>
+        <v>24.4</v>
       </c>
       <c r="K20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L20" t="n">
         <v>1996</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0970648484848485</v>
+        <v>9.26474758151223</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1431</v>
+        <v>109365.862068966</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06596</v>
+        <v>14.31</v>
       </c>
       <c r="K21" t="n">
+        <v>6.596</v>
+      </c>
+      <c r="L21" t="n">
         <v>1998</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0298242424242424</v>
+        <v>2.7430196218439</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07903</v>
+        <v>4255587.96551724</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02021</v>
+        <v>3.682</v>
       </c>
       <c r="K22" t="n">
-        <v>2020</v>
+        <v>2.021</v>
       </c>
       <c r="L22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M22" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0942181818181818</v>
+        <v>9.3322686978504</v>
       </c>
       <c r="I23" t="n">
-        <v>0.13697</v>
+        <v>85815020.4137931</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0603</v>
+        <v>12.792</v>
       </c>
       <c r="K23" t="n">
-        <v>2020</v>
+        <v>6.03</v>
       </c>
       <c r="L23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="M23" t="n">
         <v>1993</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" t="n">
-        <v>0.119522727272727</v>
+        <v>12.2196872209485</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2454</v>
+        <v>142593.551724138</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0741</v>
+        <v>24.54</v>
       </c>
       <c r="K24" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L24" t="n">
         <v>1993</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0611615151515152</v>
+        <v>6.36425024740441</v>
       </c>
       <c r="I25" t="n">
-        <v>0.09316</v>
+        <v>171783.517241379</v>
       </c>
       <c r="J25" t="n">
-        <v>0.047</v>
+        <v>9.316</v>
       </c>
       <c r="K25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L25" t="n">
         <v>2017</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0272015151515152</v>
+        <v>2.47940330663361</v>
       </c>
       <c r="I26" t="n">
-        <v>0.05947</v>
+        <v>294961.931034483</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01374</v>
+        <v>3.96</v>
       </c>
       <c r="K26" t="n">
-        <v>2022</v>
+        <v>1.374</v>
       </c>
       <c r="L26" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M26" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H27" t="n">
-        <v>0.194250303030303</v>
+        <v>18.9449337185655</v>
       </c>
       <c r="I27" t="n">
-        <v>0.238</v>
+        <v>702791.586206897</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1382</v>
+        <v>23.8</v>
       </c>
       <c r="K27" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="L27" t="n">
         <v>2003</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0574263636363636</v>
+        <v>5.64275153104559</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06676</v>
+        <v>1553558.55172414</v>
       </c>
       <c r="J28" t="n">
-        <v>0.05372</v>
+        <v>5.978</v>
       </c>
       <c r="K28" t="n">
-        <v>2021</v>
+        <v>5.372</v>
       </c>
       <c r="L28" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M28" t="n">
         <v>2008</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0773060606060606</v>
+        <v>7.70397316459349</v>
       </c>
       <c r="I29" t="n">
-        <v>0.11377</v>
+        <v>17630878.5517241</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0528</v>
+        <v>11.377</v>
       </c>
       <c r="K29" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="L29" t="n">
         <v>1993</v>
       </c>
-      <c r="L29" t="n">
-        <v>2022</v>
+      <c r="M29" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0394012121212121</v>
+        <v>3.91679435330935</v>
       </c>
       <c r="I30" t="n">
-        <v>0.05097</v>
+        <v>4272521.44827586</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01818</v>
+        <v>4.918</v>
       </c>
       <c r="K30" t="n">
-        <v>2021</v>
+        <v>1.818</v>
       </c>
       <c r="L30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="M30" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0645993939393939</v>
+        <v>6.50377985489635</v>
       </c>
       <c r="I31" t="n">
-        <v>0.08531</v>
+        <v>76330.6896551724</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05041</v>
+        <v>8.531</v>
       </c>
       <c r="K31" t="n">
+        <v>5.041</v>
+      </c>
+      <c r="L31" t="n">
         <v>2013</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>2001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0804966666666667</v>
+        <v>7.90105073103089</v>
       </c>
       <c r="I32" t="n">
-        <v>0.11313</v>
+        <v>7156094.17241379</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0435</v>
+        <v>11.313</v>
       </c>
       <c r="K32" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="L32" t="n">
         <v>2009</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>1992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0405424242424242</v>
+        <v>3.9955291096069</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05</v>
+        <v>742875715.413793</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0237</v>
+        <v>4.72</v>
       </c>
       <c r="K33" t="n">
-        <v>2020</v>
+        <v>2.37</v>
       </c>
       <c r="L33" t="n">
+        <v>2009</v>
+      </c>
+      <c r="M33" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0469836363636364</v>
+        <v>4.83937700786474</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07223</v>
+        <v>7232462.31034483</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01896</v>
+        <v>7.223</v>
       </c>
       <c r="K34" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="L34" t="n">
         <v>2012</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0542251515151515</v>
+        <v>5.24549501190771</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09118</v>
+        <v>7666029.37931035</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03063</v>
+        <v>9.118</v>
       </c>
       <c r="K35" t="n">
+        <v>3.063</v>
+      </c>
+      <c r="L35" t="n">
         <v>1993</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0382809090909091</v>
+        <v>3.78679990060971</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05369</v>
+        <v>23083987.5172414</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02948</v>
+        <v>4.661</v>
       </c>
       <c r="K36" t="n">
-        <v>2020</v>
+        <v>2.948</v>
       </c>
       <c r="L36" t="n">
+        <v>2018</v>
+      </c>
+      <c r="M36" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H37" t="n">
-        <v>0.201240606060606</v>
+        <v>20.011064078537</v>
       </c>
       <c r="I37" t="n">
-        <v>0.22373</v>
+        <v>1524548.34482759</v>
       </c>
       <c r="J37" t="n">
-        <v>0.19379</v>
+        <v>20.938</v>
       </c>
       <c r="K37" t="n">
-        <v>2020</v>
+        <v>19.379</v>
       </c>
       <c r="L37" t="n">
+        <v>2018</v>
+      </c>
+      <c r="M37" t="n">
         <v>2010</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H38" t="n">
-        <v>0.115961515151515</v>
+        <v>11.3365302323513</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2052</v>
+        <v>19673580.137931</v>
       </c>
       <c r="J38" t="n">
-        <v>0.078</v>
+        <v>20.52</v>
       </c>
       <c r="K38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L38" t="n">
         <v>2000</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>1993</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0484566666666667</v>
+        <v>4.74398002233063</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05884</v>
+        <v>146389.310344828</v>
       </c>
       <c r="J39" t="n">
-        <v>0.04369</v>
+        <v>5.1</v>
       </c>
       <c r="K39" t="n">
-        <v>2020</v>
+        <v>4.369</v>
       </c>
       <c r="L39" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M39" t="n">
         <v>2002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" t="n">
-        <v>0.127839393939394</v>
+        <v>12.6281006194987</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1466</v>
+        <v>178447.965517241</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1067</v>
+        <v>13.635</v>
       </c>
       <c r="K40" t="n">
-        <v>2020</v>
+        <v>10.67</v>
       </c>
       <c r="L40" t="n">
+        <v>2003</v>
+      </c>
+      <c r="M40" t="n">
         <v>2010</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0739175757575758</v>
+        <v>6.97780819923789</v>
       </c>
       <c r="I41" t="n">
-        <v>0.16432</v>
+        <v>1840838.03448276</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0393</v>
+        <v>10.807</v>
       </c>
       <c r="K41" t="n">
-        <v>2020</v>
+        <v>3.93</v>
       </c>
       <c r="L41" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M41" t="n">
         <v>1992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0381530303030303</v>
+        <v>3.99469617962882</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0928</v>
+        <v>4839206.62068965</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01163</v>
+        <v>9.28</v>
       </c>
       <c r="K42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L42" t="n">
         <v>1993</v>
       </c>
-      <c r="L42" t="n">
-        <v>2023</v>
+      <c r="M42" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0650157575757576</v>
+        <v>7.08708289261418</v>
       </c>
       <c r="I43" t="n">
-        <v>0.16277</v>
+        <v>520139.931034483</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0209</v>
+        <v>16.277</v>
       </c>
       <c r="K43" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="L43" t="n">
         <v>2014</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>1992</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0525193939393939</v>
+        <v>5.61737671348126</v>
       </c>
       <c r="I44" t="n">
-        <v>0.08764</v>
+        <v>5212241.17241379</v>
       </c>
       <c r="J44" t="n">
-        <v>0.02015</v>
+        <v>8.764</v>
       </c>
       <c r="K44" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="L44" t="n">
         <v>2000</v>
       </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0680642424242424</v>
+        <v>7.21496984170729</v>
       </c>
       <c r="I45" t="n">
-        <v>0.11167</v>
+        <v>41183135.9655172</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03045</v>
+        <v>11.167</v>
       </c>
       <c r="K45" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="L45" t="n">
         <v>2005</v>
       </c>
-      <c r="L45" t="n">
-        <v>2023</v>
+      <c r="M45" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H46" t="n">
-        <v>0.267142727272727</v>
+        <v>26.5981109446593</v>
       </c>
       <c r="I46" t="n">
-        <v>0.27645</v>
+        <v>179587.827586207</v>
       </c>
       <c r="J46" t="n">
-        <v>0.25999</v>
+        <v>27.607</v>
       </c>
       <c r="K46" t="n">
-        <v>2020</v>
+        <v>25.999</v>
       </c>
       <c r="L46" t="n">
+        <v>1995</v>
+      </c>
+      <c r="M46" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H47" t="n">
-        <v>0.060170303030303</v>
+        <v>6.14363590221327</v>
       </c>
       <c r="I47" t="n">
-        <v>0.10719</v>
+        <v>2886578.93103448</v>
       </c>
       <c r="J47" t="n">
-        <v>0.03683</v>
+        <v>10.719</v>
       </c>
       <c r="K47" t="n">
+        <v>3.683</v>
+      </c>
+      <c r="L47" t="n">
         <v>1993</v>
       </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
         <v>2008</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0633969696969697</v>
+        <v>6.35422214849801</v>
       </c>
       <c r="I48" t="n">
-        <v>0.07702</v>
+        <v>3626074.48275862</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04764</v>
+        <v>7.605</v>
       </c>
       <c r="K48" t="n">
-        <v>2021</v>
+        <v>4.764</v>
       </c>
       <c r="L48" t="n">
+        <v>2015</v>
+      </c>
+      <c r="M48" t="n">
         <v>2008</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" t="n">
-        <v>0.17810696969697</v>
+        <v>17.3451382177183</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3184</v>
+        <v>9876395.82758621</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0982</v>
+        <v>31.84</v>
       </c>
       <c r="K49" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="L49" t="n">
         <v>1995</v>
       </c>
-      <c r="L49" t="n">
+      <c r="M49" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0416915151515152</v>
+        <v>4.07269006156401</v>
       </c>
       <c r="I50" t="n">
-        <v>0.06127</v>
+        <v>6078618.96551724</v>
       </c>
       <c r="J50" t="n">
-        <v>0.03083</v>
+        <v>5.662</v>
       </c>
       <c r="K50" t="n">
-        <v>2020</v>
+        <v>3.083</v>
       </c>
       <c r="L50" t="n">
+        <v>2003</v>
+      </c>
+      <c r="M50" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0989287878787879</v>
+        <v>10.3729917643128</v>
       </c>
       <c r="I51" t="n">
-        <v>0.13154</v>
+        <v>24607338.7586207</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07306</v>
+        <v>13.154</v>
       </c>
       <c r="K51" t="n">
+        <v>7.851</v>
+      </c>
+      <c r="L51" t="n">
         <v>2013</v>
       </c>
-      <c r="L51" t="n">
-        <v>2023</v>
+      <c r="M51" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0572163636363636</v>
+        <v>5.68351669227899</v>
       </c>
       <c r="I52" t="n">
-        <v>0.06341</v>
+        <v>1161101.55172414</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05329</v>
+        <v>5.879</v>
       </c>
       <c r="K52" t="n">
-        <v>2021</v>
+        <v>5.329</v>
       </c>
       <c r="L52" t="n">
+        <v>2017</v>
+      </c>
+      <c r="M52" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H53" t="n">
-        <v>0.167416060606061</v>
+        <v>17.1162700811483</v>
       </c>
       <c r="I53" t="n">
-        <v>0.26094</v>
+        <v>20322608.6551724</v>
       </c>
       <c r="J53" t="n">
-        <v>0.08232</v>
+        <v>26.094</v>
       </c>
       <c r="K53" t="n">
+        <v>8.232</v>
+      </c>
+      <c r="L53" t="n">
         <v>2013</v>
       </c>
-      <c r="L53" t="n">
+      <c r="M53" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0833321212121212</v>
+        <v>8.51737980289435</v>
       </c>
       <c r="I54" t="n">
-        <v>0.16707</v>
+        <v>693991.551724138</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01468</v>
+        <v>16.707</v>
       </c>
       <c r="K54" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="L54" t="n">
         <v>2010</v>
       </c>
-      <c r="L54" t="n">
+      <c r="M54" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0293333333333333</v>
+        <v>2.73900047493249</v>
       </c>
       <c r="I55" t="n">
-        <v>0.04024</v>
+        <v>35273761.4137931</v>
       </c>
       <c r="J55" t="n">
-        <v>0.02251</v>
+        <v>3.714</v>
       </c>
       <c r="K55" t="n">
-        <v>2020</v>
+        <v>2.251</v>
       </c>
       <c r="L55" t="n">
+        <v>1999</v>
+      </c>
+      <c r="M55" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0982663636363636</v>
+        <v>10.0826070557646</v>
       </c>
       <c r="I56" t="n">
-        <v>0.17005</v>
+        <v>2625060.20689655</v>
       </c>
       <c r="J56" t="n">
-        <v>0.06369</v>
+        <v>17.005</v>
       </c>
       <c r="K56" t="n">
+        <v>6.369</v>
+      </c>
+      <c r="L56" t="n">
         <v>1995</v>
       </c>
-      <c r="L56" t="n">
+      <c r="M56" t="n">
         <v>2008</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0447784848484848</v>
+        <v>4.45513372362941</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0477</v>
+        <v>345155</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03886</v>
+        <v>4.77</v>
       </c>
       <c r="K57" t="n">
+        <v>3.886</v>
+      </c>
+      <c r="L57" t="n">
         <v>2002</v>
       </c>
-      <c r="L57" t="n">
+      <c r="M57" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0961693939393939</v>
+        <v>9.84848049447532</v>
       </c>
       <c r="I58" t="n">
-        <v>0.12593</v>
+        <v>28605442.8965517</v>
       </c>
       <c r="J58" t="n">
-        <v>0.07308</v>
+        <v>12.593</v>
       </c>
       <c r="K58" t="n">
+        <v>7.386</v>
+      </c>
+      <c r="L58" t="n">
         <v>1994</v>
       </c>
-      <c r="L58" t="n">
-        <v>2022</v>
+      <c r="M58" t="n">
+        <v>2008</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H59" t="n">
-        <v>0.188166666666667</v>
+        <v>18.8455045771067</v>
       </c>
       <c r="I59" t="n">
-        <v>0.21273</v>
+        <v>464493.103448276</v>
       </c>
       <c r="J59" t="n">
-        <v>0.1691</v>
+        <v>20.502</v>
       </c>
       <c r="K59" t="n">
-        <v>2020</v>
+        <v>16.91</v>
       </c>
       <c r="L59" t="n">
+        <v>2018</v>
+      </c>
+      <c r="M59" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0619151515151515</v>
+        <v>6.39858220871388</v>
       </c>
       <c r="I60" t="n">
-        <v>0.10346</v>
+        <v>31091942.6896552</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0373</v>
+        <v>10.346</v>
       </c>
       <c r="K60" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="L60" t="n">
         <v>1993</v>
       </c>
-      <c r="L60" t="n">
-        <v>2022</v>
+      <c r="M60" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H61" t="n">
-        <v>0.131271818181818</v>
+        <v>13.080378488455</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2071</v>
+        <v>2102517.82758621</v>
       </c>
       <c r="J61" t="n">
-        <v>0.027</v>
+        <v>20.71</v>
       </c>
       <c r="K61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L61" t="n">
         <v>2009</v>
       </c>
-      <c r="L61" t="n">
+      <c r="M61" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0552418181818182</v>
+        <v>5.61618645869621</v>
       </c>
       <c r="I62" t="n">
-        <v>0.10456</v>
+        <v>9818574.24137931</v>
       </c>
       <c r="J62" t="n">
-        <v>0.02173</v>
+        <v>10.456</v>
       </c>
       <c r="K62" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="L62" t="n">
         <v>2000</v>
       </c>
-      <c r="L62" t="n">
+      <c r="M62" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0486369696969697</v>
+        <v>4.78917242744333</v>
       </c>
       <c r="I63" t="n">
-        <v>0.05993</v>
+        <v>3196211.55172414</v>
       </c>
       <c r="J63" t="n">
-        <v>0.04423</v>
+        <v>5.251</v>
       </c>
       <c r="K63" t="n">
-        <v>2020</v>
+        <v>4.423</v>
       </c>
       <c r="L63" t="n">
+        <v>2015</v>
+      </c>
+      <c r="M63" t="n">
         <v>1997</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0870933333333333</v>
+        <v>8.70537221351501</v>
       </c>
       <c r="I64" t="n">
-        <v>0.10383</v>
+        <v>559209.344827586</v>
       </c>
       <c r="J64" t="n">
-        <v>0.04127</v>
+        <v>10.383</v>
       </c>
       <c r="K64" t="n">
+        <v>4.127</v>
+      </c>
+      <c r="L64" t="n">
         <v>2007</v>
       </c>
-      <c r="L64" t="n">
+      <c r="M64" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0324581818181818</v>
+        <v>3.22315184814717</v>
       </c>
       <c r="I65" t="n">
-        <v>0.03628</v>
+        <v>456396.517241379</v>
       </c>
       <c r="J65" t="n">
-        <v>0.0303</v>
+        <v>3.576</v>
       </c>
       <c r="K65" t="n">
-        <v>2021</v>
+        <v>3.03</v>
       </c>
       <c r="L65" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M65" t="n">
         <v>1997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0813318181818182</v>
+        <v>8.09449010181663</v>
       </c>
       <c r="I66" t="n">
-        <v>0.09194</v>
+        <v>335972.482758621</v>
       </c>
       <c r="J66" t="n">
-        <v>0.07285</v>
+        <v>8.367</v>
       </c>
       <c r="K66" t="n">
-        <v>2021</v>
+        <v>7.285</v>
       </c>
       <c r="L66" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M66" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H67" t="n">
-        <v>0.139161212121212</v>
+        <v>14.0429692776327</v>
       </c>
       <c r="I67" t="n">
-        <v>0.27686</v>
+        <v>4716000.17241379</v>
       </c>
       <c r="J67" t="n">
-        <v>0.07572</v>
+        <v>27.686</v>
       </c>
       <c r="K67" t="n">
+        <v>7.572</v>
+      </c>
+      <c r="L67" t="n">
         <v>2013</v>
       </c>
-      <c r="L67" t="n">
+      <c r="M67" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0273712121212121</v>
+        <v>2.7381145311777</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03497</v>
+        <v>4829124.44827586</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02174</v>
+        <v>3.497</v>
       </c>
       <c r="K68" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="L68" t="n">
         <v>2010</v>
       </c>
-      <c r="L68" t="n">
-        <v>2021</v>
+      <c r="M68" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0820478787878788</v>
+        <v>8.55693832530027</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1532</v>
+        <v>73653.9655172414</v>
       </c>
       <c r="J69" t="n">
-        <v>0.03509</v>
+        <v>15.32</v>
       </c>
       <c r="K69" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="L69" t="n">
         <v>2000</v>
       </c>
-      <c r="L69" t="n">
+      <c r="M69" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H70" t="n">
-        <v>0.122462424242424</v>
+        <v>12.0363596574915</v>
       </c>
       <c r="I70" t="n">
-        <v>0.15701</v>
+        <v>282685.137931034</v>
       </c>
       <c r="J70" t="n">
-        <v>0.107</v>
+        <v>14.019</v>
       </c>
       <c r="K70" t="n">
-        <v>2020</v>
+        <v>10.7</v>
       </c>
       <c r="L70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="M70" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0406984848484849</v>
+        <v>3.99145743507942</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0786</v>
+        <v>3536366</v>
       </c>
       <c r="J71" t="n">
-        <v>0.018</v>
+        <v>7.86</v>
       </c>
       <c r="K71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L71" t="n">
         <v>2003</v>
       </c>
-      <c r="L71" t="n">
+      <c r="M71" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0485978787878788</v>
+        <v>4.64419449087425</v>
       </c>
       <c r="I72" t="n">
-        <v>0.10679</v>
+        <v>2868046.27586207</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0306</v>
+        <v>7.078</v>
       </c>
       <c r="K72" t="n">
-        <v>2020</v>
+        <v>3.06</v>
       </c>
       <c r="L72" t="n">
+        <v>2014</v>
+      </c>
+      <c r="M72" t="n">
         <v>1992</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H73" t="n">
-        <v>0.115998181818182</v>
+        <v>12.1933818267418</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1729</v>
+        <v>1914070.06896552</v>
       </c>
       <c r="J73" t="n">
-        <v>0.06063</v>
+        <v>17.29</v>
       </c>
       <c r="K73" t="n">
+        <v>6.617</v>
+      </c>
+      <c r="L73" t="n">
         <v>2014</v>
       </c>
-      <c r="L73" t="n">
-        <v>2023</v>
+      <c r="M73" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H74" t="n">
-        <v>0.121584545454545</v>
+        <v>12.2795965205731</v>
       </c>
       <c r="I74" t="n">
-        <v>0.168</v>
+        <v>3664390.65517241</v>
       </c>
       <c r="J74" t="n">
-        <v>0.06968</v>
+        <v>16.8</v>
       </c>
       <c r="K74" t="n">
+        <v>6.968</v>
+      </c>
+      <c r="L74" t="n">
         <v>2007</v>
       </c>
-      <c r="L74" t="n">
+      <c r="M74" t="n">
         <v>1997</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0745969696969697</v>
+        <v>7.88948887913252</v>
       </c>
       <c r="I75" t="n">
-        <v>0.12098</v>
+        <v>4332606.68965517</v>
       </c>
       <c r="J75" t="n">
-        <v>0.03419</v>
+        <v>12.098</v>
       </c>
       <c r="K75" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="L75" t="n">
         <v>1993</v>
       </c>
-      <c r="L75" t="n">
+      <c r="M75" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0506739393939394</v>
+        <v>5.26362386983012</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0806</v>
+        <v>108301711.482759</v>
       </c>
       <c r="J76" t="n">
-        <v>0.02617</v>
+        <v>8.06</v>
       </c>
       <c r="K76" t="n">
+        <v>2.617</v>
+      </c>
+      <c r="L76" t="n">
         <v>2007</v>
       </c>
-      <c r="L76" t="n">
+      <c r="M76" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0755990909090909</v>
+        <v>7.85096409659391</v>
       </c>
       <c r="I77" t="n">
-        <v>0.08697</v>
+        <v>418107981.689655</v>
       </c>
       <c r="J77" t="n">
-        <v>0.04172</v>
+        <v>8.697</v>
       </c>
       <c r="K77" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="L77" t="n">
         <v>2005</v>
       </c>
-      <c r="L77" t="n">
-        <v>2023</v>
+      <c r="M77" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0878260606060606</v>
+        <v>9.04324480069443</v>
       </c>
       <c r="I78" t="n">
-        <v>0.15771</v>
+        <v>2013425.37931034</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03684</v>
+        <v>15.771</v>
       </c>
       <c r="K78" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="L78" t="n">
         <v>1991</v>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>2001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H79" t="n">
-        <v>0.110414545454545</v>
+        <v>11.3903169024544</v>
       </c>
       <c r="I79" t="n">
-        <v>0.13679</v>
+        <v>21993526.8965517</v>
       </c>
       <c r="J79" t="n">
-        <v>0.09085</v>
+        <v>13.679</v>
       </c>
       <c r="K79" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="L79" t="n">
         <v>2010</v>
       </c>
-      <c r="L79" t="n">
-        <v>2022</v>
+      <c r="M79" t="n">
+        <v>1996</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H80" t="n">
-        <v>0.100091212121212</v>
+        <v>9.5614836191926</v>
       </c>
       <c r="I80" t="n">
-        <v>0.16173</v>
+        <v>6947098.72413793</v>
       </c>
       <c r="J80" t="n">
-        <v>0.07965</v>
+        <v>14.142</v>
       </c>
       <c r="K80" t="n">
-        <v>2021</v>
+        <v>7.965</v>
       </c>
       <c r="L80" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M80" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04044</v>
+        <v>3.95324018299944</v>
       </c>
       <c r="I81" t="n">
-        <v>0.07564</v>
+        <v>178881.275862069</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01874</v>
+        <v>7.564</v>
       </c>
       <c r="K81" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="L81" t="n">
         <v>2010</v>
       </c>
-      <c r="L81" t="n">
+      <c r="M81" t="n">
         <v>2001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0854918181818182</v>
+        <v>8.63328877977219</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1408</v>
+        <v>3132061</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03389</v>
+        <v>14.08</v>
       </c>
       <c r="K82" t="n">
+        <v>3.731</v>
+      </c>
+      <c r="L82" t="n">
         <v>1992</v>
       </c>
-      <c r="L82" t="n">
-        <v>2023</v>
+      <c r="M82" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0979918181818182</v>
+        <v>9.96348479339471</v>
       </c>
       <c r="I83" t="n">
-        <v>0.12683</v>
+        <v>24401122.6896552</v>
       </c>
       <c r="J83" t="n">
-        <v>0.06076</v>
+        <v>12.683</v>
       </c>
       <c r="K83" t="n">
+        <v>6.076</v>
+      </c>
+      <c r="L83" t="n">
         <v>2014</v>
       </c>
-      <c r="L83" t="n">
+      <c r="M83" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0680845454545455</v>
+        <v>7.07384414194396</v>
       </c>
       <c r="I84" t="n">
-        <v>0.09698</v>
+        <v>1233314.27586207</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04083</v>
+        <v>9.698</v>
       </c>
       <c r="K84" t="n">
+        <v>4.987</v>
+      </c>
+      <c r="L84" t="n">
         <v>2013</v>
       </c>
-      <c r="L84" t="n">
-        <v>2022</v>
+      <c r="M84" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H85" t="n">
-        <v>0.153522727272727</v>
+        <v>14.7544044001989</v>
       </c>
       <c r="I85" t="n">
-        <v>0.21311</v>
+        <v>1628699.10344828</v>
       </c>
       <c r="J85" t="n">
-        <v>0.119</v>
+        <v>21.311</v>
       </c>
       <c r="K85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L85" t="n">
         <v>1991</v>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0368636363636364</v>
+        <v>3.82104886691756</v>
       </c>
       <c r="I86" t="n">
-        <v>0.05386</v>
+        <v>66828215.4827586</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02059</v>
+        <v>5.386</v>
       </c>
       <c r="K86" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="L86" t="n">
         <v>2002</v>
       </c>
-      <c r="L86" t="n">
+      <c r="M86" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0701342424242424</v>
+        <v>7.15516979284126</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1346</v>
+        <v>8599870.10344828</v>
       </c>
       <c r="J87" t="n">
-        <v>0.009</v>
+        <v>13.46</v>
       </c>
       <c r="K87" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L87" t="n">
         <v>1999</v>
       </c>
-      <c r="L87" t="n">
+      <c r="M87" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0329121212121212</v>
+        <v>3.02252515565382</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05805</v>
+        <v>14977871.6896552</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0265</v>
+        <v>5.014</v>
       </c>
       <c r="K88" t="n">
-        <v>2022</v>
+        <v>2.65</v>
       </c>
       <c r="L88" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M88" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0260972727272727</v>
+        <v>2.47647926390274</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0463</v>
+        <v>2448730</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01</v>
+        <v>4.252</v>
       </c>
       <c r="K89" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M89" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H90" t="n">
-        <v>0.00664939393939394</v>
+        <v>0.683507972478311</v>
       </c>
       <c r="I90" t="n">
-        <v>0.01257</v>
+        <v>6044687.24137931</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0012</v>
+        <v>1.257</v>
       </c>
       <c r="K90" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L90" t="n">
         <v>2007</v>
       </c>
-      <c r="L90" t="n">
+      <c r="M90" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0334515151515151</v>
+        <v>3.36680087753216</v>
       </c>
       <c r="I91" t="n">
-        <v>0.06963</v>
+        <v>24341742.6206897</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02048</v>
+        <v>6.963</v>
       </c>
       <c r="K91" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="L91" t="n">
         <v>1998</v>
       </c>
-      <c r="L91" t="n">
+      <c r="M91" t="n">
         <v>1996</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0161654545454545</v>
+        <v>1.74107199445375</v>
       </c>
       <c r="I92" t="n">
-        <v>0.03535</v>
+        <v>1353285.75862069</v>
       </c>
       <c r="J92" t="n">
-        <v>0.00694</v>
+        <v>2.9</v>
       </c>
       <c r="K92" t="n">
-        <v>2020</v>
+        <v>0.694</v>
       </c>
       <c r="L92" t="n">
+        <v>2014</v>
+      </c>
+      <c r="M92" t="n">
         <v>1995</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0195436363636364</v>
+        <v>1.98187184766777</v>
       </c>
       <c r="I93" t="n">
-        <v>0.03269</v>
+        <v>2235085.72413793</v>
       </c>
       <c r="J93" t="n">
-        <v>0.00708</v>
+        <v>3.269</v>
       </c>
       <c r="K93" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="L93" t="n">
         <v>2017</v>
       </c>
-      <c r="L93" t="n">
+      <c r="M93" t="n">
         <v>2010</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0899957575757576</v>
+        <v>8.65933889200987</v>
       </c>
       <c r="I94" t="n">
-        <v>0.13235</v>
+        <v>1544548.17241379</v>
       </c>
       <c r="J94" t="n">
-        <v>0.06355</v>
+        <v>11.301</v>
       </c>
       <c r="K94" t="n">
-        <v>2020</v>
+        <v>6.355</v>
       </c>
       <c r="L94" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M94" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0254321212121212</v>
+        <v>2.43843059884082</v>
       </c>
       <c r="I95" t="n">
-        <v>0.04092</v>
+        <v>1523174.89655172</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02021</v>
+        <v>3.081</v>
       </c>
       <c r="K95" t="n">
-        <v>2020</v>
+        <v>2.021</v>
       </c>
       <c r="L95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="M95" t="n">
         <v>1999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H96" t="n">
-        <v>0.191539393939394</v>
+        <v>19.132919909897</v>
       </c>
       <c r="I96" t="n">
-        <v>0.19649</v>
+        <v>1859281.34482759</v>
       </c>
       <c r="J96" t="n">
-        <v>0.18613</v>
+        <v>19.649</v>
       </c>
       <c r="K96" t="n">
+        <v>18.613</v>
+      </c>
+      <c r="L96" t="n">
         <v>2015</v>
       </c>
-      <c r="L96" t="n">
+      <c r="M96" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H97" t="n">
-        <v>0.182129696969697</v>
+        <v>18.3241504336297</v>
       </c>
       <c r="I97" t="n">
-        <v>0.25225</v>
+        <v>77735.9655172414</v>
       </c>
       <c r="J97" t="n">
-        <v>0.11092</v>
+        <v>22.21</v>
       </c>
       <c r="K97" t="n">
-        <v>2020</v>
+        <v>12.72</v>
       </c>
       <c r="L97" t="n">
-        <v>2023</v>
+        <v>2013</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2008</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H98" t="n">
-        <v>0.074680303030303</v>
+        <v>7.43289886455724</v>
       </c>
       <c r="I98" t="n">
-        <v>0.14661</v>
+        <v>7892534.10344828</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0388</v>
+        <v>14.661</v>
       </c>
       <c r="K98" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="L98" t="n">
         <v>1991</v>
       </c>
-      <c r="L98" t="n">
+      <c r="M98" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H99" t="n">
-        <v>0.161564242424242</v>
+        <v>15.9939807638834</v>
       </c>
       <c r="I99" t="n">
-        <v>0.18351</v>
+        <v>854676.413793103</v>
       </c>
       <c r="J99" t="n">
-        <v>0.15405</v>
+        <v>16.876</v>
       </c>
       <c r="K99" t="n">
-        <v>2020</v>
+        <v>15.405</v>
       </c>
       <c r="L99" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M99" t="n">
         <v>1992</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H100" t="n">
-        <v>0.104964848484848</v>
+        <v>11.0055238368652</v>
       </c>
       <c r="I100" t="n">
-        <v>0.17814</v>
+        <v>1608021.4137931</v>
       </c>
       <c r="J100" t="n">
-        <v>0.011</v>
+        <v>17.814</v>
       </c>
       <c r="K100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L100" t="n">
         <v>2010</v>
       </c>
-      <c r="L100" t="n">
+      <c r="M100" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H101" t="n">
-        <v>0.04236</v>
+        <v>4.34129436114629</v>
       </c>
       <c r="I101" t="n">
-        <v>0.06773</v>
+        <v>221783.275862069</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01482</v>
+        <v>6.669</v>
       </c>
       <c r="K101" t="n">
-        <v>2020</v>
+        <v>1.482</v>
       </c>
       <c r="L101" t="n">
+        <v>2015</v>
+      </c>
+      <c r="M101" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H102" t="n">
-        <v>0.116941212121212</v>
+        <v>12.3619722612139</v>
       </c>
       <c r="I102" t="n">
-        <v>0.207</v>
+        <v>1100808.93103448</v>
       </c>
       <c r="J102" t="n">
-        <v>0.027</v>
+        <v>20.7</v>
       </c>
       <c r="K102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L102" t="n">
         <v>1996</v>
       </c>
-      <c r="L102" t="n">
+      <c r="M102" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0332642424242424</v>
+        <v>3.18984325514042</v>
       </c>
       <c r="I103" t="n">
-        <v>0.06874</v>
+        <v>276961.620689655</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0167</v>
+        <v>6.874</v>
       </c>
       <c r="K103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L103" t="n">
         <v>2000</v>
       </c>
-      <c r="L103" t="n">
+      <c r="M103" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H104" t="n">
-        <v>0.110995151515152</v>
+        <v>10.9783841024766</v>
       </c>
       <c r="I104" t="n">
-        <v>0.14089</v>
+        <v>10299952.1724138</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0891</v>
+        <v>14.089</v>
       </c>
       <c r="K104" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="L104" t="n">
         <v>1995</v>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0406230303030303</v>
+        <v>4.31043286523003</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1114</v>
+        <v>1396452.24137931</v>
       </c>
       <c r="J105" t="n">
-        <v>0.00794</v>
+        <v>11.14</v>
       </c>
       <c r="K105" t="n">
+        <v>1.239</v>
+      </c>
+      <c r="L105" t="n">
         <v>1999</v>
       </c>
-      <c r="L105" t="n">
-        <v>2021</v>
+      <c r="M105" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0392739393939394</v>
+        <v>3.58106617938488</v>
       </c>
       <c r="I106" t="n">
-        <v>0.063</v>
+        <v>9487054.75862069</v>
       </c>
       <c r="J106" t="n">
-        <v>0.00599</v>
+        <v>6.3</v>
       </c>
       <c r="K106" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="L106" t="n">
         <v>1993</v>
       </c>
-      <c r="L106" t="n">
+      <c r="M106" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0514339393939394</v>
+        <v>5.96909712106743</v>
       </c>
       <c r="I107" t="n">
-        <v>0.11697</v>
+        <v>125372.137931034</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0079</v>
+        <v>11.697</v>
       </c>
       <c r="K107" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L107" t="n">
         <v>2009</v>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>1995</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0396757575757576</v>
+        <v>4.0344395376158</v>
       </c>
       <c r="I108" t="n">
-        <v>0.07095</v>
+        <v>43490466.7586207</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02598</v>
+        <v>7.095</v>
       </c>
       <c r="K108" t="n">
+        <v>2.598</v>
+      </c>
+      <c r="L108" t="n">
         <v>1995</v>
       </c>
-      <c r="L108" t="n">
+      <c r="M108" t="n">
         <v>1999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H109" t="n">
-        <v>0.28927696969697</v>
+        <v>30.801210022823</v>
       </c>
       <c r="I109" t="n">
-        <v>0.388</v>
+        <v>847210.551724138</v>
       </c>
       <c r="J109" t="n">
-        <v>0.13075</v>
+        <v>38.8</v>
       </c>
       <c r="K109" t="n">
+        <v>17.414</v>
+      </c>
+      <c r="L109" t="n">
         <v>1996</v>
       </c>
-      <c r="L109" t="n">
-        <v>2023</v>
+      <c r="M109" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0160669696969697</v>
+        <v>1.44445582131229</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03528</v>
+        <v>5227936.62068965</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01206</v>
+        <v>2.414</v>
       </c>
       <c r="K110" t="n">
-        <v>2020</v>
+        <v>1.206</v>
       </c>
       <c r="L110" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M110" t="n">
         <v>2003</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0581166666666667</v>
+        <v>5.98135732138252</v>
       </c>
       <c r="I111" t="n">
-        <v>0.07488</v>
+        <v>174362.206896552</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02929</v>
+        <v>7.488</v>
       </c>
       <c r="K111" t="n">
+        <v>3.627</v>
+      </c>
+      <c r="L111" t="n">
         <v>2003</v>
       </c>
-      <c r="L111" t="n">
-        <v>2022</v>
+      <c r="M111" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H112" t="n">
-        <v>0.010140303030303</v>
+        <v>0.757576318543008</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0434</v>
+        <v>22537673.1724138</v>
       </c>
       <c r="J112" t="n">
-        <v>0.00407</v>
+        <v>1.356</v>
       </c>
       <c r="K112" t="n">
-        <v>2021</v>
+        <v>0.407</v>
       </c>
       <c r="L112" t="n">
+        <v>2017</v>
+      </c>
+      <c r="M112" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H113" t="n">
-        <v>0.23532696969697</v>
+        <v>24.1682262659041</v>
       </c>
       <c r="I113" t="n">
-        <v>0.30401</v>
+        <v>245681.034482759</v>
       </c>
       <c r="J113" t="n">
-        <v>0.15128</v>
+        <v>30.401</v>
       </c>
       <c r="K113" t="n">
+        <v>15.128</v>
+      </c>
+      <c r="L113" t="n">
         <v>1993</v>
       </c>
-      <c r="L113" t="n">
+      <c r="M113" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0606490909090909</v>
+        <v>6.0008112797691</v>
       </c>
       <c r="I114" t="n">
-        <v>0.09269</v>
+        <v>1056180.82758621</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03905</v>
+        <v>9.269</v>
       </c>
       <c r="K114" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="L114" t="n">
         <v>2019</v>
       </c>
-      <c r="L114" t="n">
+      <c r="M114" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0315512121212121</v>
+        <v>3.12443902927675</v>
       </c>
       <c r="I115" t="n">
-        <v>0.03984</v>
+        <v>9254646.65517241</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02646</v>
+        <v>3.632</v>
       </c>
       <c r="K115" t="n">
-        <v>2021</v>
+        <v>2.646</v>
       </c>
       <c r="L115" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M115" t="n">
         <v>1998</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H116" t="n">
-        <v>0.100154848484848</v>
+        <v>9.93674452786568</v>
       </c>
       <c r="I116" t="n">
-        <v>0.11068</v>
+        <v>754477.724137931</v>
       </c>
       <c r="J116" t="n">
-        <v>0.09287</v>
+        <v>10.438</v>
       </c>
       <c r="K116" t="n">
-        <v>2021</v>
+        <v>9.287</v>
       </c>
       <c r="L116" t="n">
+        <v>2018</v>
+      </c>
+      <c r="M116" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0816663636363636</v>
+        <v>8.21003641924371</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0959</v>
+        <v>542947.137931034</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06057</v>
+        <v>9.59</v>
       </c>
       <c r="K117" t="n">
+        <v>6.331</v>
+      </c>
+      <c r="L117" t="n">
         <v>1995</v>
       </c>
-      <c r="L117" t="n">
-        <v>2023</v>
+      <c r="M117" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B118" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0500942424242424</v>
+        <v>4.96118453124728</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05681</v>
+        <v>5521136.13793103</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0469</v>
+        <v>5.333</v>
       </c>
       <c r="K118" t="n">
-        <v>2020</v>
+        <v>4.69</v>
       </c>
       <c r="L118" t="n">
+        <v>1994</v>
+      </c>
+      <c r="M118" t="n">
         <v>1997</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0342966666666667</v>
+        <v>3.30184794962336</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0464</v>
+        <v>11215669.4137931</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0245</v>
+        <v>4.11</v>
       </c>
       <c r="K119" t="n">
-        <v>2021</v>
+        <v>2.45</v>
       </c>
       <c r="L119" t="n">
+        <v>1993</v>
+      </c>
+      <c r="M119" t="n">
         <v>1997</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H120" t="n">
-        <v>0.209044848484848</v>
+        <v>20.9429914488131</v>
       </c>
       <c r="I120" t="n">
-        <v>0.2445</v>
+        <v>688015</v>
       </c>
       <c r="J120" t="n">
-        <v>0.16771</v>
+        <v>24.45</v>
       </c>
       <c r="K120" t="n">
+        <v>16.771</v>
+      </c>
+      <c r="L120" t="n">
         <v>1997</v>
       </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G121" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H121" t="n">
-        <v>0.153568181818182</v>
+        <v>15.4649675073242</v>
       </c>
       <c r="I121" t="n">
-        <v>0.18956</v>
+        <v>112040.103448276</v>
       </c>
       <c r="J121" t="n">
-        <v>0.10881</v>
+        <v>18.956</v>
       </c>
       <c r="K121" t="n">
+        <v>10.881</v>
+      </c>
+      <c r="L121" t="n">
         <v>1994</v>
       </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H122" t="n">
-        <v>0.0133033333333333</v>
+        <v>1.33870239431751</v>
       </c>
       <c r="I122" t="n">
-        <v>0.031</v>
+        <v>5783283.62068965</v>
       </c>
       <c r="J122" t="n">
-        <v>0.00317</v>
+        <v>3.1</v>
       </c>
       <c r="K122" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="L122" t="n">
         <v>2005</v>
       </c>
-      <c r="L122" t="n">
+      <c r="M122" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B123" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C123" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E123" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H123" t="n">
-        <v>0.0402121212121212</v>
+        <v>4.00738489581544</v>
       </c>
       <c r="I123" t="n">
-        <v>0.05712</v>
+        <v>49897646.5172414</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03074</v>
+        <v>5.206</v>
       </c>
       <c r="K123" t="n">
-        <v>2020</v>
+        <v>3.556</v>
       </c>
       <c r="L123" t="n">
-        <v>2023</v>
+        <v>2019</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2004</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0629830303030303</v>
+        <v>6.15961887745767</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0816</v>
+        <v>2109424.17241379</v>
       </c>
       <c r="J124" t="n">
-        <v>0.033</v>
+        <v>8.16</v>
       </c>
       <c r="K124" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L124" t="n">
         <v>2009</v>
       </c>
-      <c r="L124" t="n">
+      <c r="M124" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0492569696969697</v>
+        <v>5.04834048417746</v>
       </c>
       <c r="I125" t="n">
-        <v>0.07416</v>
+        <v>8417995</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02119</v>
+        <v>7.416</v>
       </c>
       <c r="K125" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="L125" t="n">
         <v>2014</v>
       </c>
-      <c r="L125" t="n">
+      <c r="M125" t="n">
         <v>2001</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0406851515151515</v>
+        <v>4.03874721630507</v>
       </c>
       <c r="I126" t="n">
-        <v>0.06307</v>
+        <v>2488527.62068966</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02493</v>
+        <v>6.307</v>
       </c>
       <c r="K126" t="n">
+        <v>2.493</v>
+      </c>
+      <c r="L126" t="n">
         <v>1995</v>
       </c>
-      <c r="L126" t="n">
+      <c r="M126" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H127" t="n">
-        <v>0.107639090909091</v>
+        <v>10.6293781135188</v>
       </c>
       <c r="I127" t="n">
-        <v>0.13157</v>
+        <v>6420053.44827586</v>
       </c>
       <c r="J127" t="n">
-        <v>0.10539</v>
+        <v>10.684</v>
       </c>
       <c r="K127" t="n">
-        <v>2020</v>
+        <v>10.539</v>
       </c>
       <c r="L127" t="n">
+        <v>2016</v>
+      </c>
+      <c r="M127" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H128" t="n">
-        <v>0.0579966666666667</v>
+        <v>5.88268567290151</v>
       </c>
       <c r="I128" t="n">
-        <v>0.10667</v>
+        <v>2189121.93103448</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03297</v>
+        <v>10.667</v>
       </c>
       <c r="K128" t="n">
+        <v>3.661</v>
+      </c>
+      <c r="L128" t="n">
         <v>1992</v>
       </c>
-      <c r="L128" t="n">
-        <v>2022</v>
+      <c r="M128" t="n">
+        <v>2007</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0368727272727273</v>
+        <v>3.59977643137522</v>
       </c>
       <c r="I129" t="n">
-        <v>0.04756</v>
+        <v>1259579</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0146</v>
+        <v>4.756</v>
       </c>
       <c r="K129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L129" t="n">
         <v>2004</v>
       </c>
-      <c r="L129" t="n">
-        <v>2023</v>
+      <c r="M129" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H130" t="n">
-        <v>0.0188566666666667</v>
+        <v>1.57520024373516</v>
       </c>
       <c r="I130" t="n">
-        <v>0.06338</v>
+        <v>52612844.9310345</v>
       </c>
       <c r="J130" t="n">
-        <v>0.00398</v>
+        <v>4.83</v>
       </c>
       <c r="K130" t="n">
-        <v>2021</v>
+        <v>0.398</v>
       </c>
       <c r="L130" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M130" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B131" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0623845454545455</v>
+        <v>5.61022507501386</v>
       </c>
       <c r="I131" t="n">
-        <v>0.14183</v>
+        <v>1452053.51724138</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03707</v>
+        <v>6.525</v>
       </c>
       <c r="K131" t="n">
-        <v>2020</v>
+        <v>3.707</v>
       </c>
       <c r="L131" t="n">
+        <v>1996</v>
+      </c>
+      <c r="M131" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B132" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H132" t="n">
-        <v>0.043780303030303</v>
+        <v>4.12353091097071</v>
       </c>
       <c r="I132" t="n">
-        <v>0.07179</v>
+        <v>13677722.8275862</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03208</v>
+        <v>5.11</v>
       </c>
       <c r="K132" t="n">
-        <v>2020</v>
+        <v>3.208</v>
       </c>
       <c r="L132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="M132" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H133" t="n">
-        <v>0.0340127272727273</v>
+        <v>3.43406577991956</v>
       </c>
       <c r="I133" t="n">
-        <v>0.04052</v>
+        <v>34050252.8965517</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02233</v>
+        <v>4.052</v>
       </c>
       <c r="K133" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="L133" t="n">
         <v>2006</v>
       </c>
-      <c r="L133" t="n">
-        <v>2023</v>
+      <c r="M133" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H134" t="n">
-        <v>0.0258669696969697</v>
+        <v>2.55756201270602</v>
       </c>
       <c r="I134" t="n">
-        <v>0.02943</v>
+        <v>2356358.31034483</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02002</v>
+        <v>2.943</v>
       </c>
       <c r="K134" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="L134" t="n">
         <v>1999</v>
       </c>
-      <c r="L134" t="n">
+      <c r="M134" t="n">
         <v>2010</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H135" t="n">
-        <v>0.106735757575758</v>
+        <v>11.6491843930949</v>
       </c>
       <c r="I135" t="n">
-        <v>0.19895</v>
+        <v>17774972.5862069</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02886</v>
+        <v>19.895</v>
       </c>
       <c r="K135" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="L135" t="n">
         <v>2002</v>
       </c>
-      <c r="L135" t="n">
-        <v>2022</v>
+      <c r="M135" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H136" t="n">
-        <v>0.121785454545455</v>
+        <v>12.8438256551401</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1693</v>
+        <v>1273731.17241379</v>
       </c>
       <c r="J136" t="n">
-        <v>0.05962</v>
+        <v>16.93</v>
       </c>
       <c r="K136" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="L136" t="n">
         <v>1992</v>
       </c>
-      <c r="L136" t="n">
-        <v>2023</v>
+      <c r="M136" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B137" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H137" t="n">
-        <v>0.0289690909090909</v>
+        <v>2.88516753247394</v>
       </c>
       <c r="I137" t="n">
-        <v>0.03166</v>
+        <v>13777428.3448276</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02394</v>
+        <v>3.166</v>
       </c>
       <c r="K137" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="L137" t="n">
         <v>1999</v>
       </c>
-      <c r="L137" t="n">
+      <c r="M137" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B138" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H138" t="n">
-        <v>0.077459696969697</v>
+        <v>7.97539626712716</v>
       </c>
       <c r="I138" t="n">
-        <v>0.16188</v>
+        <v>5213294.51724138</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03806</v>
+        <v>16.188</v>
       </c>
       <c r="K138" t="n">
+        <v>3.806</v>
+      </c>
+      <c r="L138" t="n">
         <v>2013</v>
       </c>
-      <c r="L138" t="n">
+      <c r="M138" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B139" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H139" t="n">
-        <v>0.0564678787878788</v>
+        <v>5.47717085081004</v>
       </c>
       <c r="I139" t="n">
-        <v>0.09393</v>
+        <v>2432111.82758621</v>
       </c>
       <c r="J139" t="n">
-        <v>0.034</v>
+        <v>9.393</v>
       </c>
       <c r="K139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L139" t="n">
         <v>2002</v>
       </c>
-      <c r="L139" t="n">
+      <c r="M139" t="n">
         <v>1995</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G140" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1873915625</v>
+        <v>19.4309185727037</v>
       </c>
       <c r="I140" t="n">
-        <v>0.27465</v>
+        <v>771979.965517241</v>
       </c>
       <c r="J140" t="n">
-        <v>0.10183</v>
+        <v>27.465</v>
       </c>
       <c r="K140" t="n">
+        <v>10.183</v>
+      </c>
+      <c r="L140" t="n">
         <v>2002</v>
       </c>
-      <c r="L140" t="n">
+      <c r="M140" t="n">
         <v>1994</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G141" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H141" t="n">
-        <v>0.11884</v>
+        <v>11.8288570373144</v>
       </c>
       <c r="I141" t="n">
-        <v>0.12879</v>
+        <v>103336.344827586</v>
       </c>
       <c r="J141" t="n">
-        <v>0.11536</v>
+        <v>12.273</v>
       </c>
       <c r="K141" t="n">
-        <v>2020</v>
+        <v>11.536</v>
       </c>
       <c r="L141" t="n">
+        <v>2011</v>
+      </c>
+      <c r="M141" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B142" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H142" t="n">
-        <v>0.00552727272727273</v>
+        <v>0.407236792798812</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0087</v>
+        <v>880636.344827586</v>
       </c>
       <c r="J142" t="n">
-        <v>0.001</v>
+        <v>0.87</v>
       </c>
       <c r="K142" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L142" t="n">
         <v>1991</v>
       </c>
-      <c r="L142" t="n">
+      <c r="M142" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B143" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H143" t="n">
-        <v>0.0658378787878788</v>
+        <v>6.79732199151309</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0826</v>
+        <v>10353593.6206897</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03912</v>
+        <v>8.26</v>
       </c>
       <c r="K143" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="L143" t="n">
         <v>1992</v>
       </c>
-      <c r="L143" t="n">
+      <c r="M143" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B144" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H144" t="n">
-        <v>0.0705409090909091</v>
+        <v>7.37385834042871</v>
       </c>
       <c r="I144" t="n">
-        <v>0.13261</v>
+        <v>74087800.8275862</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03325</v>
+        <v>13.261</v>
       </c>
       <c r="K144" t="n">
+        <v>4.496</v>
+      </c>
+      <c r="L144" t="n">
         <v>1998</v>
       </c>
-      <c r="L144" t="n">
-        <v>2023</v>
+      <c r="M144" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B145" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H145" t="n">
-        <v>0.120732121212121</v>
+        <v>11.7182839488539</v>
       </c>
       <c r="I145" t="n">
-        <v>0.15793</v>
+        <v>3203352.51724138</v>
       </c>
       <c r="J145" t="n">
-        <v>0.10759</v>
+        <v>12.304</v>
       </c>
       <c r="K145" t="n">
-        <v>2021</v>
+        <v>10.759</v>
       </c>
       <c r="L145" t="n">
+        <v>1991</v>
+      </c>
+      <c r="M145" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B146" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H146" t="n">
-        <v>0.0579454545454545</v>
+        <v>5.69567569616836</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0745</v>
+        <v>7739037.82758621</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04346</v>
+        <v>7.29</v>
       </c>
       <c r="K146" t="n">
-        <v>2020</v>
+        <v>4.346</v>
       </c>
       <c r="L146" t="n">
+        <v>1991</v>
+      </c>
+      <c r="M146" t="n">
         <v>1999</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B147" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H147" t="n">
-        <v>0.142429090909091</v>
+        <v>14.6540891231305</v>
       </c>
       <c r="I147" t="n">
-        <v>0.1744</v>
+        <v>8793921.65517241</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0753</v>
+        <v>17.44</v>
       </c>
       <c r="K147" t="n">
+        <v>12.014</v>
+      </c>
+      <c r="L147" t="n">
         <v>2011</v>
       </c>
-      <c r="L147" t="n">
-        <v>2022</v>
+      <c r="M147" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B148" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H148" t="n">
-        <v>0.0326427272727273</v>
+        <v>3.37737030570632</v>
       </c>
       <c r="I148" t="n">
-        <v>0.06757</v>
+        <v>3224900.34482759</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02648</v>
+        <v>6.757</v>
       </c>
       <c r="K148" t="n">
+        <v>2.648</v>
+      </c>
+      <c r="L148" t="n">
         <v>2015</v>
       </c>
-      <c r="L148" t="n">
+      <c r="M148" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B149" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H149" t="n">
-        <v>0.0398745454545455</v>
+        <v>4.03234807968672</v>
       </c>
       <c r="I149" t="n">
-        <v>0.0593</v>
+        <v>2543401.44827586</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0218</v>
+        <v>5.93</v>
       </c>
       <c r="K149" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L149" t="n">
         <v>2003</v>
       </c>
-      <c r="L149" t="n">
+      <c r="M149" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B150" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H150" t="n">
-        <v>0.0160751515151515</v>
+        <v>1.54052007066529</v>
       </c>
       <c r="I150" t="n">
-        <v>0.02635</v>
+        <v>246328.793103448</v>
       </c>
       <c r="J150" t="n">
-        <v>0.00694</v>
+        <v>2.635</v>
       </c>
       <c r="K150" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="L150" t="n">
         <v>2002</v>
       </c>
-      <c r="L150" t="n">
+      <c r="M150" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B151" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C151" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H151" t="n">
-        <v>0.0402206060606061</v>
+        <v>4.10557506067515</v>
       </c>
       <c r="I151" t="n">
-        <v>0.04678</v>
+        <v>1936428.82758621</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03174</v>
+        <v>4.678</v>
       </c>
       <c r="K151" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="L151" t="n">
         <v>2014</v>
       </c>
-      <c r="L151" t="n">
-        <v>2023</v>
+      <c r="M151" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H152" t="n">
-        <v>0.0590663636363636</v>
+        <v>6.07598057949129</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0994</v>
+        <v>2374081.06896552</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02758</v>
+        <v>9.94</v>
       </c>
       <c r="K152" t="n">
+        <v>3.693</v>
+      </c>
+      <c r="L152" t="n">
         <v>1993</v>
       </c>
-      <c r="L152" t="n">
-        <v>2023</v>
+      <c r="M152" t="n">
+        <v>2013</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B153" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H153" t="n">
-        <v>0.189895151515152</v>
+        <v>18.9028643635183</v>
       </c>
       <c r="I153" t="n">
-        <v>0.19686</v>
+        <v>1908167.5862069</v>
       </c>
       <c r="J153" t="n">
-        <v>0.18372</v>
+        <v>19.686</v>
       </c>
       <c r="K153" t="n">
+        <v>18.372</v>
+      </c>
+      <c r="L153" t="n">
         <v>1994</v>
       </c>
-      <c r="L153" t="n">
+      <c r="M153" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B154" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H154" t="n">
-        <v>0.150789696969697</v>
+        <v>15.7900783814634</v>
       </c>
       <c r="I154" t="n">
-        <v>0.24</v>
+        <v>3367063.68965517</v>
       </c>
       <c r="J154" t="n">
-        <v>0.08683</v>
+        <v>24</v>
       </c>
       <c r="K154" t="n">
+        <v>10.395</v>
+      </c>
+      <c r="L154" t="n">
         <v>2012</v>
       </c>
-      <c r="L154" t="n">
-        <v>2023</v>
+      <c r="M154" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G155" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H155" t="n">
-        <v>0.124223939393939</v>
+        <v>12.3808333861835</v>
       </c>
       <c r="I155" t="n">
-        <v>0.14204</v>
+        <v>3120727.44827586</v>
       </c>
       <c r="J155" t="n">
-        <v>0.11909</v>
+        <v>13.079</v>
       </c>
       <c r="K155" t="n">
-        <v>2020</v>
+        <v>11.909</v>
       </c>
       <c r="L155" t="n">
+        <v>2017</v>
+      </c>
+      <c r="M155" t="n">
         <v>1997</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B156" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H156" t="n">
-        <v>0.147655757575758</v>
+        <v>14.7266847906718</v>
       </c>
       <c r="I156" t="n">
-        <v>0.1763</v>
+        <v>51876.9655172414</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1359</v>
+        <v>17.63</v>
       </c>
       <c r="K156" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="L156" t="n">
         <v>2002</v>
       </c>
-      <c r="L156" t="n">
+      <c r="M156" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B157" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H157" t="n">
-        <v>0.0986569696969697</v>
+        <v>9.56277242979215</v>
       </c>
       <c r="I157" t="n">
-        <v>0.1728</v>
+        <v>179885.827586207</v>
       </c>
       <c r="J157" t="n">
-        <v>0.066</v>
+        <v>17.28</v>
       </c>
       <c r="K157" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L157" t="n">
         <v>1992</v>
       </c>
-      <c r="L157" t="n">
+      <c r="M157" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B158" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C158" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H158" t="n">
-        <v>0.122546363636364</v>
+        <v>13.0254259871289</v>
       </c>
       <c r="I158" t="n">
-        <v>0.19149</v>
+        <v>2638980.4137931</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05761</v>
+        <v>19.149</v>
       </c>
       <c r="K158" t="n">
+        <v>5.761</v>
+      </c>
+      <c r="L158" t="n">
         <v>2001</v>
       </c>
-      <c r="L158" t="n">
+      <c r="M158" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B159" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H159" t="n">
-        <v>0.0667348484848485</v>
+        <v>6.97868727124914</v>
       </c>
       <c r="I159" t="n">
-        <v>0.10116</v>
+        <v>989472.448275862</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03627</v>
+        <v>10.116</v>
       </c>
       <c r="K159" t="n">
+        <v>4.379</v>
+      </c>
+      <c r="L159" t="n">
         <v>2013</v>
       </c>
-      <c r="L159" t="n">
-        <v>2023</v>
+      <c r="M159" t="n">
+        <v>2008</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B160" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D160" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0735333333333333</v>
+        <v>7.25398521829251</v>
       </c>
       <c r="I160" t="n">
-        <v>0.10359</v>
+        <v>4828794.48275862</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03243</v>
+        <v>10.359</v>
       </c>
       <c r="K160" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="L160" t="n">
         <v>1997</v>
       </c>
-      <c r="L160" t="n">
+      <c r="M160" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B161" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H161" t="n">
-        <v>0.261635151515151</v>
+        <v>24.9276335265835</v>
       </c>
       <c r="I161" t="n">
-        <v>0.37852</v>
+        <v>328851.344827586</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2057</v>
+        <v>29.049</v>
       </c>
       <c r="K161" t="n">
-        <v>2022</v>
+        <v>20.57</v>
       </c>
       <c r="L161" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M161" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B162" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H162" t="n">
-        <v>0.105497272727273</v>
+        <v>10.0914643195151</v>
       </c>
       <c r="I162" t="n">
-        <v>0.15176</v>
+        <v>4883544.17241379</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0675</v>
+        <v>14.768</v>
       </c>
       <c r="K162" t="n">
-        <v>2020</v>
+        <v>6.75</v>
       </c>
       <c r="L162" t="n">
+        <v>2014</v>
+      </c>
+      <c r="M162" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B163" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E163" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G163" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H163" t="n">
-        <v>0.00892363636363636</v>
+        <v>0.859198499622114</v>
       </c>
       <c r="I163" t="n">
-        <v>0.01693</v>
+        <v>3600430.89655172</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0066</v>
+        <v>1.135</v>
       </c>
       <c r="K163" t="n">
-        <v>2020</v>
+        <v>0.66</v>
       </c>
       <c r="L163" t="n">
+        <v>2018</v>
+      </c>
+      <c r="M163" t="n">
         <v>1992</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B164" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C164" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0325927272727273</v>
+        <v>3.26608036291225</v>
       </c>
       <c r="I164" t="n">
-        <v>0.0447</v>
+        <v>2034742.86206897</v>
       </c>
       <c r="J164" t="n">
-        <v>0.01982</v>
+        <v>4.47</v>
       </c>
       <c r="K164" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="L164" t="n">
         <v>1993</v>
       </c>
-      <c r="L164" t="n">
+      <c r="M164" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B165" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H165" t="n">
-        <v>0.0130190909090909</v>
+        <v>1.29496195097649</v>
       </c>
       <c r="I165" t="n">
-        <v>0.03404</v>
+        <v>36609900.5172414</v>
       </c>
       <c r="J165" t="n">
-        <v>0.00249</v>
+        <v>3.404</v>
       </c>
       <c r="K165" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="L165" t="n">
         <v>1998</v>
       </c>
-      <c r="L165" t="n">
+      <c r="M165" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B166" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G166" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H166" t="n">
-        <v>0.100516060606061</v>
+        <v>10.3031192924106</v>
       </c>
       <c r="I166" t="n">
-        <v>0.165</v>
+        <v>1879666.06896552</v>
       </c>
       <c r="J166" t="n">
-        <v>0.019</v>
+        <v>16.5</v>
       </c>
       <c r="K166" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L166" t="n">
         <v>1998</v>
       </c>
-      <c r="L166" t="n">
+      <c r="M166" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B167" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G167" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H167" t="n">
-        <v>0.0605881818181818</v>
+        <v>6.12285957346829</v>
       </c>
       <c r="I167" t="n">
-        <v>0.127</v>
+        <v>1733586.5862069</v>
       </c>
       <c r="J167" t="n">
-        <v>0.014</v>
+        <v>12.7</v>
       </c>
       <c r="K167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L167" t="n">
         <v>1999</v>
       </c>
-      <c r="L167" t="n">
+      <c r="M167" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B168" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D168" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G168" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H168" t="n">
-        <v>0.0338460606060606</v>
+        <v>3.61007730360706</v>
       </c>
       <c r="I168" t="n">
-        <v>0.04657</v>
+        <v>398146.206896552</v>
       </c>
       <c r="J168" t="n">
-        <v>0.01523</v>
+        <v>4.657</v>
       </c>
       <c r="K168" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="L168" t="n">
         <v>2016</v>
       </c>
-      <c r="L168" t="n">
-        <v>2023</v>
+      <c r="M168" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B169" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G169" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H169" t="n">
-        <v>0.0238336363636364</v>
+        <v>2.39370449250398</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0518</v>
+        <v>36453.8275862069</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0109</v>
+        <v>5.18</v>
       </c>
       <c r="K169" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L169" t="n">
         <v>2003</v>
       </c>
-      <c r="L169" t="n">
+      <c r="M169" t="n">
         <v>2006</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B170" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E170" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G170" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H170" t="n">
-        <v>0.085969696969697</v>
+        <v>8.70579514232546</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1981</v>
+        <v>608314.344827586</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02428</v>
+        <v>19.81</v>
       </c>
       <c r="K170" t="n">
+        <v>2.428</v>
+      </c>
+      <c r="L170" t="n">
         <v>1993</v>
       </c>
-      <c r="L170" t="n">
+      <c r="M170" t="n">
         <v>2015</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B171" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C171" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G171" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H171" t="n">
-        <v>0.151869090909091</v>
+        <v>15.0468822803391</v>
       </c>
       <c r="I171" t="n">
-        <v>0.18334</v>
+        <v>3484245.86206897</v>
       </c>
       <c r="J171" t="n">
-        <v>0.12365</v>
+        <v>18.334</v>
       </c>
       <c r="K171" t="n">
+        <v>12.365</v>
+      </c>
+      <c r="L171" t="n">
         <v>2011</v>
       </c>
-      <c r="L171" t="n">
+      <c r="M171" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B172" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G172" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H172" t="n">
-        <v>0.0984730303030303</v>
+        <v>9.81178765159882</v>
       </c>
       <c r="I172" t="n">
-        <v>0.14026</v>
+        <v>25275305.0689655</v>
       </c>
       <c r="J172" t="n">
-        <v>0.06495</v>
+        <v>14.026</v>
       </c>
       <c r="K172" t="n">
+        <v>6.495</v>
+      </c>
+      <c r="L172" t="n">
         <v>2009</v>
       </c>
-      <c r="L172" t="n">
+      <c r="M172" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B173" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G173" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H173" t="n">
-        <v>0.0300815151515152</v>
+        <v>2.95934386792499</v>
       </c>
       <c r="I173" t="n">
-        <v>0.03881</v>
+        <v>19138946.7241379</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02125</v>
+        <v>3.881</v>
       </c>
       <c r="K173" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="L173" t="n">
         <v>1993</v>
       </c>
-      <c r="L173" t="n">
+      <c r="M173" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B174" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C174" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H174" t="n">
-        <v>0.0317857575757576</v>
+        <v>3.14206130898835</v>
       </c>
       <c r="I174" t="n">
-        <v>0.03914</v>
+        <v>10295668.1724138</v>
       </c>
       <c r="J174" t="n">
-        <v>0.019</v>
+        <v>3.643</v>
       </c>
       <c r="K174" t="n">
-        <v>2020</v>
+        <v>1.9</v>
       </c>
       <c r="L174" t="n">
+        <v>2017</v>
+      </c>
+      <c r="M174" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B175" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0785454838709677</v>
+        <v>7.68059841374223</v>
       </c>
       <c r="I175" t="n">
-        <v>0.11864</v>
+        <v>22876379.3793103</v>
       </c>
       <c r="J175" t="n">
-        <v>0.019</v>
+        <v>11.864</v>
       </c>
       <c r="K175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L175" t="n">
         <v>1999</v>
       </c>
-      <c r="L175" t="n">
+      <c r="M175" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B176" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D176" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G176" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H176" t="n">
-        <v>0.0968381818181818</v>
+        <v>9.66129160540892</v>
       </c>
       <c r="I176" t="n">
-        <v>0.16661</v>
+        <v>1562410.82758621</v>
       </c>
       <c r="J176" t="n">
-        <v>0.06307</v>
+        <v>16.661</v>
       </c>
       <c r="K176" t="n">
+        <v>6.307</v>
+      </c>
+      <c r="L176" t="n">
         <v>2003</v>
       </c>
-      <c r="L176" t="n">
+      <c r="M176" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B177" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C177" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H177" t="n">
-        <v>0.0577221212121212</v>
+        <v>5.84578288965279</v>
       </c>
       <c r="I177" t="n">
-        <v>0.09633</v>
+        <v>150400000.413793</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03625</v>
+        <v>9.633</v>
       </c>
       <c r="K177" t="n">
+        <v>3.669</v>
+      </c>
+      <c r="L177" t="n">
         <v>2010</v>
       </c>
-      <c r="L177" t="n">
-        <v>2023</v>
+      <c r="M177" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B178" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D178" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G178" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H178" t="n">
-        <v>0.0677</v>
+        <v>6.86331499418067</v>
       </c>
       <c r="I178" t="n">
-        <v>0.133</v>
+        <v>10559903.8965517</v>
       </c>
       <c r="J178" t="n">
-        <v>0.019</v>
+        <v>13.3</v>
       </c>
       <c r="K178" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L178" t="n">
         <v>1998</v>
       </c>
-      <c r="L178" t="n">
+      <c r="M178" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H179" t="n">
-        <v>0.197213333333333</v>
+        <v>19.7014764322106</v>
       </c>
       <c r="I179" t="n">
-        <v>0.211</v>
+        <v>50565.0689655172</v>
       </c>
       <c r="J179" t="n">
-        <v>0.18674</v>
+        <v>21.1</v>
       </c>
       <c r="K179" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="L179" t="n">
         <v>2001</v>
       </c>
-      <c r="L179" t="n">
-        <v>2023</v>
+      <c r="M179" t="n">
+        <v>2008</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B180" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D180" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G180" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H180" t="n">
-        <v>0.0890151515151515</v>
+        <v>8.99586800785594</v>
       </c>
       <c r="I180" t="n">
-        <v>0.1678</v>
+        <v>11328648.6206897</v>
       </c>
       <c r="J180" t="n">
-        <v>0.05045</v>
+        <v>16.78</v>
       </c>
       <c r="K180" t="n">
+        <v>5.045</v>
+      </c>
+      <c r="L180" t="n">
         <v>2003</v>
       </c>
-      <c r="L180" t="n">
+      <c r="M180" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B181" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G181" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H181" t="n">
-        <v>0.116950909090909</v>
+        <v>11.4633698132373</v>
       </c>
       <c r="I181" t="n">
-        <v>0.14836</v>
+        <v>50988.5517241379</v>
       </c>
       <c r="J181" t="n">
-        <v>0.09935</v>
+        <v>12.446</v>
       </c>
       <c r="K181" t="n">
-        <v>2020</v>
+        <v>9.935</v>
       </c>
       <c r="L181" t="n">
+        <v>1993</v>
+      </c>
+      <c r="M181" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B182" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D182" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E182" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G182" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H182" t="n">
-        <v>0.0190163636363636</v>
+        <v>1.84366847929021</v>
       </c>
       <c r="I182" t="n">
-        <v>0.0287</v>
+        <v>44025067.2758621</v>
       </c>
       <c r="J182" t="n">
-        <v>0.00999</v>
+        <v>2.87</v>
       </c>
       <c r="K182" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="L182" t="n">
         <v>1997</v>
       </c>
-      <c r="L182" t="n">
+      <c r="M182" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B183" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D183" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G183" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H183" t="n">
-        <v>0.0666224242424242</v>
+        <v>6.61619810626478</v>
       </c>
       <c r="I183" t="n">
-        <v>0.0871</v>
+        <v>88604.3103448276</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04046</v>
+        <v>8.71</v>
       </c>
       <c r="K183" t="n">
+        <v>4.565</v>
+      </c>
+      <c r="L183" t="n">
         <v>2003</v>
       </c>
-      <c r="L183" t="n">
-        <v>2020</v>
+      <c r="M183" t="n">
+        <v>2009</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B184" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D184" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G184" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H184" t="n">
-        <v>0.0623169696969697</v>
+        <v>5.84744518639569</v>
       </c>
       <c r="I184" t="n">
-        <v>0.10368</v>
+        <v>62437.6206896552</v>
       </c>
       <c r="J184" t="n">
-        <v>0.021</v>
+        <v>9.601</v>
       </c>
       <c r="K184" t="n">
-        <v>2021</v>
+        <v>2.1</v>
       </c>
       <c r="L184" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M184" t="n">
         <v>1991</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B185" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G185" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H185" t="n">
-        <v>0.131246666666667</v>
+        <v>13.0390040368017</v>
       </c>
       <c r="I185" t="n">
-        <v>0.18564</v>
+        <v>5035148.5862069</v>
       </c>
       <c r="J185" t="n">
-        <v>0.08114</v>
+        <v>18.564</v>
       </c>
       <c r="K185" t="n">
+        <v>8.114</v>
+      </c>
+      <c r="L185" t="n">
         <v>2017</v>
       </c>
-      <c r="L185" t="n">
+      <c r="M185" t="n">
         <v>1992</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B186" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G186" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H186" t="n">
-        <v>0.217663333333333</v>
+        <v>21.1423072826552</v>
       </c>
       <c r="I186" t="n">
-        <v>0.28838</v>
+        <v>20249712.2413793</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1939</v>
+        <v>25.538</v>
       </c>
       <c r="K186" t="n">
-        <v>2022</v>
+        <v>19.39</v>
       </c>
       <c r="L186" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M186" t="n">
         <v>2007</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B187" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G187" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H187" t="n">
-        <v>0.115796363636364</v>
+        <v>11.3427280814383</v>
       </c>
       <c r="I187" t="n">
-        <v>0.197</v>
+        <v>3900564.65517241</v>
       </c>
       <c r="J187" t="n">
-        <v>0.05031</v>
+        <v>19.7</v>
       </c>
       <c r="K187" t="n">
+        <v>5.031</v>
+      </c>
+      <c r="L187" t="n">
         <v>1993</v>
       </c>
-      <c r="L187" t="n">
+      <c r="M187" t="n">
         <v>2018</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B188" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C188" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G188" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H188" t="n">
-        <v>0.0592372727272727</v>
+        <v>5.49057887303492</v>
       </c>
       <c r="I188" t="n">
-        <v>0.10087</v>
+        <v>4724135.62068965</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0439</v>
+        <v>7.373</v>
       </c>
       <c r="K188" t="n">
-        <v>2022</v>
+        <v>4.39</v>
       </c>
       <c r="L188" t="n">
+        <v>2019</v>
+      </c>
+      <c r="M188" t="n">
         <v>2004</v>
       </c>
     </row>
